--- a/resources/tools/yarn-tuning-guide.xlsx
+++ b/resources/tools/yarn-tuning-guide.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakrawat\Documents\GitHub\SEBC\resources\tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="-30540" windowWidth="23700" windowHeight="21860" tabRatio="500"/>
+    <workbookView xWindow="-1260" yWindow="-30540" windowWidth="23700" windowHeight="21864" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster Configuration" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
     <definedName name="WorkerHostHDD">'Cluster Configuration'!$D$10</definedName>
     <definedName name="WorkerHostRAM">'Cluster Configuration'!$D$8</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -685,47 +690,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -741,38 +746,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF004D6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color theme="0"/>
@@ -898,97 +872,6 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FA00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF004D6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FA00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1009,93 +892,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF004D6F"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF004D6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FF004D6F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FA00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,6 +924,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1150,7 +955,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="88900" y="50802"/>
-          <a:ext cx="2844800" cy="522883"/>
+          <a:ext cx="2928620" cy="522883"/>
           <a:chOff x="566738" y="1811338"/>
           <a:chExt cx="5018087" cy="922337"/>
         </a:xfrm>
@@ -4016,7 +3821,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="88900" y="50800"/>
-          <a:ext cx="2844800" cy="522883"/>
+          <a:ext cx="2928620" cy="522883"/>
           <a:chOff x="566738" y="1811338"/>
           <a:chExt cx="5018087" cy="922337"/>
         </a:xfrm>
@@ -9980,7 +9785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9990,191 +9795,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="55" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="82" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:8" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="19">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="15">
-        <v>256</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="9">
+        <v>128</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="15">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15">
-        <v>36</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="15">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" ht="29" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+    <row r="15" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
-    <row r="16" spans="1:8" ht="79" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:8" ht="79.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="19">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
@@ -10188,275 +9993,292 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
-        <v>8192</v>
+      <c r="F19" s="9">
+        <v>4096</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="15">
-        <v>8192</v>
+      <c r="F20" s="9">
+        <v>2048</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
         <v>1024</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="9">
         <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <v>1024</v>
       </c>
       <c r="G23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="9">
         <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="9">
         <v>0</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="9">
         <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="9">
         <v>1024</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11">
         <f>WorkerHostCPU-SUM(E19:E27)</f>
-        <v>44</v>
-      </c>
-      <c r="F28" s="23">
+        <v>18</v>
+      </c>
+      <c r="F28" s="11">
         <f>(WorkerHostRAM*1024)-SUM(F19:F27)</f>
-        <v>242688</v>
+        <v>121856</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="15">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="E29" s="9">
         <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="E30">
         <f>E29*E28</f>
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="F31">
         <f>F28</f>
-        <v>242688</v>
+        <v>121856</v>
       </c>
       <c r="G31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A34" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="21"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="39" customHeight="1">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="15">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A13:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A34:G34"/>
     <mergeCell ref="A31:C31"/>
@@ -10473,23 +10295,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A13:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10506,70 +10311,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="54" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="47" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" ht="46.95" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="41" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
-    <row r="7" spans="1:8" ht="19">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>49</v>
       </c>
@@ -10579,13 +10384,13 @@
       <c r="E8" s="25"/>
       <c r="F8">
         <f>HostAvailableVcore</f>
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
@@ -10595,43 +10400,43 @@
       <c r="E9" s="25"/>
       <c r="F9">
         <f>HostAvailableMemory</f>
-        <v>242688</v>
+        <v>121856</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="67" customHeight="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:8" ht="67.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
-    <row r="14" spans="1:8" ht="19">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
@@ -10639,69 +10444,69 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15">
         <f>HostAvailableVcore*ClusterHostCount</f>
-        <v>1760</v>
+        <v>720</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16">
         <f>(HostAvailableMemory*ClusterHostCount)/1024</f>
-        <v>2370</v>
+        <v>1190</v>
       </c>
       <c r="G16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="29" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="19">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
@@ -10709,7 +10514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>64</v>
       </c>
@@ -10717,14 +10522,14 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="15">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>65</v>
       </c>
@@ -10732,14 +10537,14 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="15">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>66</v>
       </c>
@@ -10747,26 +10552,26 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="15">
+      <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>69</v>
       </c>
@@ -10774,14 +10579,14 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="15">
+      <c r="F27" s="9">
         <v>1024</v>
       </c>
       <c r="G27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>70</v>
       </c>
@@ -10789,14 +10594,14 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="15">
+      <c r="F28" s="9">
         <v>8192</v>
       </c>
       <c r="G28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>71</v>
       </c>
@@ -10804,124 +10609,124 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="15">
+      <c r="F29" s="9">
         <v>512</v>
       </c>
       <c r="G29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A32" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="35" customHeight="1">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
-    <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="7">
         <f>FLOOR((ClusterAvailableMemoryGB*1024)/SchedulerMinAllocMb,1)</f>
-        <v>2370</v>
+        <v>1190</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="7">
         <f>FLOOR((ClusterAvailableMemoryGB*1024)/SchedulerMaxAllocMb,1)</f>
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="7">
         <f>IF(SchedulerMinAllocVcore=0,ClusterAvailableVcore,FLOOR(ClusterAvailableVcore/SchedulerMinAllocVcore,1))</f>
-        <v>1760</v>
+        <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="7">
         <f>FLOOR(ClusterAvailableVcore/SchedulerMaxAllocVcore,1)</f>
-        <v>1760</v>
+        <v>720</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:9" ht="48" customHeight="1">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
     </row>
-    <row r="44" spans="1:9" ht="18">
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -10932,14 +10737,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" customHeight="1">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="28" t="str">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="13" t="str">
         <f>IF(SchedulerMaxAllocVcore&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -10950,14 +10755,14 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="29" t="str">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="14" t="str">
         <f>IF(SchedulerMaxAllocMb&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -10965,14 +10770,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="29" t="str">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="14" t="str">
         <f>IF(SchedulerMinAllocVcore&gt;=0,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -10980,14 +10785,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="29" t="str">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="14" t="str">
         <f>IF(SchedulerMinAllocVcore&lt;=F8,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -10995,14 +10800,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="29" t="str">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="14" t="str">
         <f>IF(SchedulerMaxAllocVcore&gt;=1,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11010,14 +10815,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="29" t="str">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="14" t="str">
         <f>IF(SchedulerMaxAllocVcore&lt;=HostAvailableVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11025,14 +10830,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="29" t="str">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="14" t="str">
         <f>IF(SchedulerMinAllocMb&lt;1024,IF(SchedulerMinAllocMb&lt;256,"BAD","WARN"),"GOOD")</f>
         <v>GOOD</v>
       </c>
@@ -11040,74 +10845,107 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A4:G4"/>
@@ -11124,55 +10962,22 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <conditionalFormatting sqref="E45:E62">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="WARN">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="WARN">
       <formula>NOT(ISERROR(SEARCH("WARN",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:D57">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E62">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",E45)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11195,40 +11000,40 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="55" customHeight="1"/>
-    <row r="2" spans="1:9" ht="47" customHeight="1">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="46.95" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="19">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -11245,241 +11050,241 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" t="s">
         <v>114</v>
       </c>
       <c r="G7" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" t="s">
         <v>114</v>
       </c>
       <c r="G8" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="9">
         <v>1024</v>
       </c>
       <c r="I8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" t="s">
         <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="9">
         <v>1024</v>
       </c>
       <c r="I9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" t="s">
         <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" t="s">
         <v>114</v>
       </c>
       <c r="G11" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="9">
         <v>1024</v>
       </c>
       <c r="I11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" t="s">
         <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <v>1024</v>
       </c>
       <c r="I12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" t="s">
         <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" t="s">
         <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="9">
         <v>1024</v>
       </c>
       <c r="I14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" t="s">
         <v>113</v>
       </c>
       <c r="G15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="9">
         <v>1024</v>
       </c>
       <c r="I15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
       <c r="F16" t="s">
         <v>114</v>
       </c>
       <c r="G16" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="9">
         <v>256</v>
       </c>
       <c r="I16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="18">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>151</v>
       </c>
@@ -11491,11 +11296,11 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="8" t="str">
         <f>IF(AppMasterCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11503,11 +11308,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="14" t="str">
+      <c r="F23" s="8" t="str">
         <f>IF(AppMasterCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11515,11 +11320,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(AppMasterMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11527,11 +11332,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(AppMasterMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11539,11 +11344,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="14" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF((AppMasterJavaHeap/AppMasterMemory)&gt;1,"BAD",IF((AppMasterJavaHeap/AppMasterMemory)&gt;=0.9,"GOOD",IF((AppMasterJavaHeap/AppMasterMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
@@ -11551,7 +11356,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
@@ -11562,11 +11367,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="14" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(MapTaskCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11574,11 +11379,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="8" t="str">
         <f>IF(MapTaskCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11586,11 +11391,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="14" t="str">
+      <c r="F31" s="8" t="str">
         <f>IF(MapTaskMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11598,11 +11403,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="14" t="str">
+      <c r="F32" s="8" t="str">
         <f>IF(MapTaskMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11610,11 +11415,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="14" t="str">
+      <c r="F33" s="8" t="str">
         <f>IF((MapTaskJavaHeap/MapTaskMemory)&gt;1,"BAD",IF((MapTaskJavaHeap/MapTaskMemory)&gt;=0.9,"GOOD",IF((MapTaskJavaHeap/MapTaskMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
@@ -11622,11 +11427,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="8" t="str">
         <f>IF((MapTaskJavaHeap-MapTaskIoSortMb)&gt;=768,"GOOD",IF((MapTaskJavaHeap-MapTaskIoSortMb)&gt;=384,"WARN","BAD"))</f>
         <v>GOOD</v>
       </c>
@@ -11634,7 +11439,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
@@ -11645,7 +11450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>158</v>
       </c>
@@ -11653,7 +11458,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="14" t="str">
+      <c r="F37" s="8" t="str">
         <f>IF(ReduceTaskCpuVcores&gt;=SchedulerMinAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11661,7 +11466,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>159</v>
       </c>
@@ -11669,7 +11474,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="14" t="str">
+      <c r="F38" s="8" t="str">
         <f>IF(ReduceTaskCpuVcores&lt;=SchedulerMaxAllocVcore,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11677,7 +11482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>160</v>
       </c>
@@ -11685,7 +11490,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="14" t="str">
+      <c r="F39" s="8" t="str">
         <f>IF(ReduceTaskMemory&gt;=SchedulerMinAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11693,7 +11498,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>161</v>
       </c>
@@ -11701,7 +11506,7 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="14" t="str">
+      <c r="F40" s="8" t="str">
         <f>IF(ReduceTaskMemory&lt;=SchedulerMaxAllocMb,"GOOD","BAD")</f>
         <v>GOOD</v>
       </c>
@@ -11709,7 +11514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>162</v>
       </c>
@@ -11717,7 +11522,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="14" t="str">
+      <c r="F41" s="8" t="str">
         <f>IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;1,"BAD",IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;=0.9,"GOOD",IF((ReduceTaskJavaHeap/ReduceTaskMemory)&gt;=0.5,"WARN","BAD")))</f>
         <v>GOOD</v>
       </c>
@@ -11727,61 +11532,61 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F42:F55 F35:F36">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="WARN">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="WARN">
       <formula>NOT(ISERROR(SEARCH("WARN",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F41">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="WARN">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="WARN">
       <formula>NOT(ISERROR(SEARCH("WARN",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F34">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="WARN">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="WARN">
       <formula>NOT(ISERROR(SEARCH("WARN",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F26">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="BAD">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="BAD">
       <formula>NOT(ISERROR(SEARCH("BAD",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARN">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARN">
       <formula>NOT(ISERROR(SEARCH("WARN",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="GOOD">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="GOOD">
       <formula>NOT(ISERROR(SEARCH("GOOD",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
